--- a/MachineLearning/당근/당근가격2023.xlsx
+++ b/MachineLearning/당근/당근가격2023.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/c/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gjaischool\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C8D59D5-5736-6147-9A91-564716E9F178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9A5AD742-5A9F-4D26-A451-957F3920FF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11020"/>
   </bookViews>
   <sheets>
-    <sheet name="당근가격2023" sheetId="2" r:id="rId1"/>
+    <sheet name="당근가격2023" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="335">
   <si>
     <t>구분</t>
   </si>
@@ -322,6 +322,36 @@
     <t>2,474</t>
   </si>
   <si>
+    <t>2,478</t>
+  </si>
+  <si>
+    <t>2,509</t>
+  </si>
+  <si>
+    <t>2,579</t>
+  </si>
+  <si>
+    <t>2,709</t>
+  </si>
+  <si>
+    <t>2,718</t>
+  </si>
+  <si>
+    <t>2,753</t>
+  </si>
+  <si>
+    <t>2,781</t>
+  </si>
+  <si>
+    <t>2,811</t>
+  </si>
+  <si>
+    <t>2,793</t>
+  </si>
+  <si>
+    <t>2,846</t>
+  </si>
+  <si>
     <t>평년</t>
   </si>
   <si>
@@ -664,6 +694,36 @@
     <t>1,641</t>
   </si>
   <si>
+    <t>1,643</t>
+  </si>
+  <si>
+    <t>1,650</t>
+  </si>
+  <si>
+    <t>1,649</t>
+  </si>
+  <si>
+    <t>1,664</t>
+  </si>
+  <si>
+    <t>1,673</t>
+  </si>
+  <si>
+    <t>1,689</t>
+  </si>
+  <si>
+    <t>1,704</t>
+  </si>
+  <si>
+    <t>1,736</t>
+  </si>
+  <si>
+    <t>1,810</t>
+  </si>
+  <si>
+    <t>1,837</t>
+  </si>
+  <si>
     <t>서울</t>
   </si>
   <si>
@@ -793,6 +853,9 @@
     <t>2,500</t>
   </si>
   <si>
+    <t>2,900</t>
+  </si>
+  <si>
     <t>대구</t>
   </si>
   <si>
@@ -835,6 +898,9 @@
     <t>2,165</t>
   </si>
   <si>
+    <t>2,915</t>
+  </si>
+  <si>
     <t>대전</t>
   </si>
   <si>
@@ -947,6 +1013,18 @@
   </si>
   <si>
     <t>2,355</t>
+  </si>
+  <si>
+    <t>2,375</t>
+  </si>
+  <si>
+    <t>3,105</t>
+  </si>
+  <si>
+    <t>3,140</t>
+  </si>
+  <si>
+    <t>3,050</t>
   </si>
 </sst>
 </file>
@@ -954,11 +1032,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
+    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -966,7 +1044,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1009,7 +1087,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1017,7 +1095,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1025,7 +1103,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1033,7 +1111,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1042,7 +1120,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1051,7 +1129,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1059,7 +1137,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1068,7 +1146,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1076,7 +1154,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1085,7 +1163,7 @@
     </font>
     <font>
       <i/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1094,7 +1172,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1102,7 +1180,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -1113,7 +1191,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1122,7 +1200,8 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2052,30 +2131,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EL8"/>
+  <dimension ref="A1:EZ8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="21" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="41" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="47" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="63" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="64" max="68" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="83" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="84" max="88" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="89" max="103" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="104" max="109" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="110" max="124" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="125" max="129" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="130" max="142" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="156" width="9.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:142" ht="19" thickBot="1">
+    <row r="1" spans="1:156" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2502,8 +2568,50 @@
       <c r="EL1" s="2">
         <v>45133</v>
       </c>
+      <c r="EM1" s="2">
+        <v>45134</v>
+      </c>
+      <c r="EN1" s="2">
+        <v>45135</v>
+      </c>
+      <c r="EO1" s="2">
+        <v>45138</v>
+      </c>
+      <c r="EP1" s="2">
+        <v>45139</v>
+      </c>
+      <c r="EQ1" s="2">
+        <v>45140</v>
+      </c>
+      <c r="ER1" s="2">
+        <v>45141</v>
+      </c>
+      <c r="ES1" s="2">
+        <v>45142</v>
+      </c>
+      <c r="ET1" s="2">
+        <v>45145</v>
+      </c>
+      <c r="EU1" s="2">
+        <v>45146</v>
+      </c>
+      <c r="EV1" s="2">
+        <v>45147</v>
+      </c>
+      <c r="EW1" s="2">
+        <v>45148</v>
+      </c>
+      <c r="EX1" s="2">
+        <v>45149</v>
+      </c>
+      <c r="EY1" s="2">
+        <v>45152</v>
+      </c>
+      <c r="EZ1" s="2">
+        <v>45154</v>
+      </c>
     </row>
-    <row r="2" spans="1:142" ht="19" thickBot="1">
+    <row r="2" spans="1:156" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -2927,884 +3035,1010 @@
       <c r="EK2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="EL2" s="5" t="s">
+      <c r="EL2" s="3" t="s">
         <v>99</v>
       </c>
+      <c r="EM2" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="EN2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="EO2" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="EP2" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="EQ2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="ER2" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="ES2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="ET2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="EU2" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="EV2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="EW2" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="EX2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="EY2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="EZ2" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="3" spans="1:142" ht="19" thickBot="1">
+    <row r="3" spans="1:156" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="U3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>102</v>
-      </c>
       <c r="AD3" s="3" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="AG3" s="3" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="AH3" s="3" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="AJ3" s="3" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="AK3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="AP3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AR3" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS3" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="BC3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="BD3" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="BF3" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="AL3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AN3" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AO3" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AP3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="AQ3" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AR3" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AS3" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="BA3" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="BB3" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="BC3" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="BD3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="BE3" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="BF3" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="BG3" s="3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="BH3" s="3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="BI3" s="3" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="BJ3" s="3" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="BK3" s="3" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="BL3" s="3" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="BM3" s="3" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="BN3" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BO3" s="3" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="BP3" s="3" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="BQ3" s="3" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="BR3" s="3" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="BS3" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="BT3" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="BU3" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="BV3" s="3" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="BW3" s="3" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="BX3" s="3" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="BY3" s="3" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="BZ3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="CA3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="CB3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="CC3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="CD3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="CE3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="CF3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="CG3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="CH3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="CI3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="CJ3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="CK3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="CL3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="CM3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="CN3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="CO3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="CP3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="CQ3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="CR3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="CS3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="CT3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="CU3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="CA3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="CB3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="CC3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="CD3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="CE3" s="3" t="s">
+      <c r="CV3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="CW3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="CX3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="CY3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="CZ3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="DA3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="DB3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="DC3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="DD3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="DE3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="DF3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="CF3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="CG3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="CH3" s="3" t="s">
+      <c r="DG3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="DH3" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="DI3" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="DJ3" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="DK3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="DL3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="CI3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="CJ3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="CK3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="CL3" s="3" t="s">
+      <c r="DM3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="DN3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="DO3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="DP3" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="DQ3" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="DR3" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="DS3" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="DT3" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="DU3" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="DV3" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="DW3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="DX3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="CM3" s="3" t="s">
+      <c r="DY3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="DZ3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="EA3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="EB3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="EC3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="ED3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="CN3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="CO3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="CP3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="CQ3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="CR3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="CS3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="CT3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="CU3" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="CV3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="CW3" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="CX3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="CY3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="CZ3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="DA3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="DB3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="DC3" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="DD3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="DE3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="DF3" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="DG3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="DH3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="DI3" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="DJ3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="DK3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="DL3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="DM3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="DN3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="DO3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="DP3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="DQ3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="DR3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="DS3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="DT3" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="DU3" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="DV3" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="DW3" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="DX3" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="DY3" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="DZ3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="EA3" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="EB3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="EC3" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="ED3" s="3" t="s">
-        <v>163</v>
-      </c>
       <c r="EE3" s="3" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="EF3" s="3" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="EG3" s="3" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="EH3" s="3" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="EI3" s="3" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="EJ3" s="3" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="EK3" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="EL3" s="5" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="EL3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="EM3" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="EN3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="EO3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="EP3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="EQ3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="ER3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="ES3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="ET3" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="EU3" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="EV3" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="EW3" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="EX3" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="EY3" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="EZ3" s="5" t="s">
+        <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:142" ht="19" thickBot="1">
+    <row r="4" spans="1:156" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AK4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AL4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AM4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AQ4" s="3" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="AR4" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AS4" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AT4" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AU4" s="3" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="AV4" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="AW4" s="3" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AX4" s="3" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="AZ4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BA4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BB4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BC4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BD4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BE4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BF4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BG4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BH4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BI4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BJ4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BK4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BL4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BM4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BN4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BO4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BP4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BQ4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BR4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BS4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BT4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BU4" s="3" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BV4" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BW4" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BX4" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BY4" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BZ4" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="CA4" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="CB4" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="CC4" s="3" t="s">
-        <v>225</v>
+        <v>245</v>
       </c>
       <c r="CD4" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="CE4" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="CF4" s="3" t="s">
         <v>90</v>
       </c>
       <c r="CG4" s="3" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="CH4" s="3" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="CI4" s="3" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="CJ4" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="CK4" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="CL4" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="CM4" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="CN4" s="3" t="s">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="CO4" s="3" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="CP4" s="3" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="CQ4" s="3" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="CR4" s="3" t="s">
-        <v>229</v>
+        <v>249</v>
       </c>
       <c r="CS4" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="CT4" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="CU4" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="CV4" s="3" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="CW4" s="3" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="CX4" s="3" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="CY4" s="3" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="CZ4" s="3" t="s">
-        <v>231</v>
+        <v>251</v>
       </c>
       <c r="DA4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DB4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DC4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DD4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DE4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DF4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DG4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DH4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DI4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DJ4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DK4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DL4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DM4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DN4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DO4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DP4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DQ4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DR4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DS4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DT4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DU4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DV4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DW4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DX4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DY4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="DZ4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EA4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EB4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EC4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="ED4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EE4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EF4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EG4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EH4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EI4" s="3" t="s">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="EJ4" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="EK4" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="EL4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="EL4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="EM4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EN4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EO4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EP4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EQ4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="ER4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="ES4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="ET4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EU4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="EV4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="EW4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="EX4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="EY4" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="EZ4" s="5" t="s">
+        <v>243</v>
+      </c>
     </row>
-    <row r="5" spans="1:142" ht="19" thickBot="1">
+    <row r="5" spans="1:156" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>7</v>
@@ -3816,510 +4050,552 @@
         <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="L5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="AG5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AK5" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AN5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AP5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AR5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AS5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AT5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AU5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="AV5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AW5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AX5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BD5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BE5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BF5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BG5" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="BH5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BI5" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="BJ5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BK5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BL5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BM5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="BN5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="BO5" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="BP5" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="BQ5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BR5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BS5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BT5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BU5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BV5" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="BW5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BX5" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="BY5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="BZ5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="CA5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CB5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="CC5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="CD5" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="CE5" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="CF5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CG5" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="CH5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CI5" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="CJ5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="CK5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CL5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CM5" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="CN5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CO5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CP5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CR5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CS5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CT5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CU5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="CV5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="CW5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="CX5" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="CY5" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="CZ5" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="DA5" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="DB5" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="DC5" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DD5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="DE5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="DF5" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="DG5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DH5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DI5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DJ5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DK5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DL5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DM5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DN5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DO5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DP5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DQ5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DR5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DS5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DT5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DU5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DV5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DW5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DX5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DY5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="DZ5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EA5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EB5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EC5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="ED5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EE5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EF5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EG5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EH5" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="EI5" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="EJ5" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="EK5" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="EL5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EM5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EN5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EO5" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EP5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EQ5" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="ES5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="ET5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EU5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EV5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EW5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EX5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EY5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="EZ5" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:156" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="X5" s="3" t="s">
+      <c r="D6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="Y5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AK5" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="AL5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AM5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AN5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AP5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AQ5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AR5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AS5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AT5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AU5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="AV5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AW5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AX5" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="AY5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA5" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BB5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BC5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BD5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BF5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BG5" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="BH5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="BI5" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="BJ5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BK5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BL5" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BM5" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="BN5" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="BO5" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="BP5" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="BQ5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BR5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BS5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BT5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BU5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BV5" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="BW5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="BX5" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="BY5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="BZ5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="CA5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="CB5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="CC5" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="CD5" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="CE5" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="CF5" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="CG5" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="CH5" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="CI5" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="CJ5" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="CK5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CL5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CM5" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="CN5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CO5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CQ5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CR5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CS5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CT5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CU5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="CV5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="CW5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="CX5" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="CY5" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="CZ5" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="DA5" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="DB5" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="DC5" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DD5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="DE5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="DF5" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="DG5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DH5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DI5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DJ5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DK5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DL5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DM5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DN5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DO5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DP5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DQ5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DR5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DS5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DT5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DU5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DV5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DW5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DX5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DY5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="DZ5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EA5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EB5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EC5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="ED5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EE5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EF5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EG5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EH5" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="EI5" s="3" t="s">
+      <c r="O6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="T6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="U6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="V6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AC6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AD6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AE6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AF6" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="EJ5" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="EK5" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="EL5" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:142" ht="19" thickBot="1">
-      <c r="A6" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="W6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="X6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="Z6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AA6" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="AB6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AC6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AE6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF6" s="3" t="s">
-        <v>235</v>
-      </c>
       <c r="AG6" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AH6" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AI6" s="3" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AJ6" s="3" t="s">
         <v>38</v>
@@ -4349,303 +4625,345 @@
         <v>38</v>
       </c>
       <c r="AS6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AT6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AV6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AW6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AY6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="AZ6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BA6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BB6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BC6" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="BD6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BE6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BF6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BG6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BH6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BI6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BJ6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BK6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BL6" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BM6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BN6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BO6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BP6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BQ6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BR6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BS6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BT6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BU6" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BW6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BX6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BY6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="BZ6" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="CA6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AT6" s="3" t="s">
+      <c r="CB6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AU6" s="3" t="s">
+      <c r="CC6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AV6" s="3" t="s">
+      <c r="CD6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AW6" s="3" t="s">
+      <c r="CE6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AX6" s="3" t="s">
+      <c r="CF6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="CG6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="CH6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="CI6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CJ6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CK6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CL6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CM6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CN6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CO6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CP6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CQ6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CR6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CS6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CT6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CU6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CV6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CW6" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="CX6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="CY6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="CZ6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="DA6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="DB6" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="DC6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DD6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DE6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DF6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DG6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DH6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DI6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DJ6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DK6" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="DL6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DM6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DN6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DO6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DP6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DQ6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DR6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DS6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DT6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DU6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DV6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DW6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DX6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DY6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="DZ6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EA6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EB6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EC6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="ED6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EE6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EF6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EG6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EH6" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="EI6" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="EJ6" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="AY6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="AZ6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BA6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BB6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BC6" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="BD6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BE6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BF6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BG6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BH6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BI6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BJ6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BK6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BL6" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BM6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BN6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BO6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BP6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BQ6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BR6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BS6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BT6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BU6" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="BV6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BW6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BX6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BY6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="BZ6" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="CA6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CB6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CC6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CD6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CE6" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="CF6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="CG6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="CH6" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="CI6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CJ6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CK6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CL6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CM6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CN6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CO6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CP6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CQ6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CR6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CS6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CT6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CU6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CV6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CW6" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="CX6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="CY6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="CZ6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="DA6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="DB6" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="DC6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DD6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DE6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DF6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DG6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DH6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DI6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DJ6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DK6" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="DL6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DM6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DN6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DO6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DP6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DQ6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DR6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DS6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DT6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DU6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DV6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DW6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DX6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DY6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="DZ6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EA6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EB6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EC6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="ED6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EE6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EF6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EG6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EH6" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="EI6" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="EJ6" s="3" t="s">
-        <v>215</v>
-      </c>
       <c r="EK6" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="EL6" s="5" t="s">
-        <v>249</v>
+        <v>269</v>
+      </c>
+      <c r="EL6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="EM6" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="EN6" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="EO6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="EP6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EQ6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="ER6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="ES6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="ET6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EU6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EV6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EW6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EX6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EY6" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="EZ6" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:142" ht="19" thickBot="1">
+    <row r="7" spans="1:156" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
@@ -4654,100 +4972,100 @@
         <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="R7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG7" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>242</v>
-      </c>
       <c r="AH7" s="3" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AI7" s="3" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AJ7" s="3" t="s">
         <v>38</v>
@@ -4762,10 +5080,10 @@
         <v>38</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="AP7" s="3" t="s">
         <v>17</v>
@@ -4774,277 +5092,277 @@
         <v>17</v>
       </c>
       <c r="AR7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="BB7" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="AS7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AT7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AU7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AV7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AW7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AX7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AY7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="AZ7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BA7" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="BB7" s="3" t="s">
-        <v>224</v>
-      </c>
       <c r="BC7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BD7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BE7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BF7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BG7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BH7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BI7" s="3" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="BJ7" s="3" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="BK7" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="BL7" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="BM7" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="BN7" s="3" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="BO7" s="3" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="BP7" s="3" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="BQ7" s="3" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="BR7" s="3" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="BS7" s="3" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="BT7" s="3" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="BU7" s="3" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
       <c r="BV7" s="3" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="BW7" s="3" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="BX7" s="3" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="BY7" s="3" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="BZ7" s="3" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="CA7" s="3" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="CB7" s="3" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="CC7" s="3" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="CD7" s="3" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="CE7" s="3" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="CF7" s="3" t="s">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="CG7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="CH7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="CI7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="CJ7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="CK7" s="3" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="CL7" s="3" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="CM7" s="3" t="s">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="CN7" s="3" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="CO7" s="3" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="CP7" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CQ7" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CR7" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CS7" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CT7" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CU7" s="3" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CV7" s="3" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="CW7" s="3" t="s">
-        <v>269</v>
+        <v>290</v>
       </c>
       <c r="CX7" s="3" t="s">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="CY7" s="3" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="CZ7" s="3" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="DA7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DB7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DC7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DD7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DE7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DF7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="DG7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DH7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DI7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DJ7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DK7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DL7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DM7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DN7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DO7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DP7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DQ7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DR7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DS7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DT7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DU7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DV7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DW7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DX7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DY7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="DZ7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="EA7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="EB7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="EC7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="ED7" s="3" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="EE7" s="3" t="s">
         <v>7</v>
@@ -5065,24 +5383,66 @@
         <v>7</v>
       </c>
       <c r="EK7" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="EL7" s="5" t="s">
-        <v>221</v>
+        <v>243</v>
+      </c>
+      <c r="EL7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EM7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EN7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EO7" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="EP7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EQ7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="ER7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="ES7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="ET7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EU7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EV7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EW7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EX7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EY7" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="EZ7" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:142">
+    <row r="8" spans="1:156" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>38</v>
@@ -5091,139 +5451,139 @@
         <v>38</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="R8" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="S8" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="T8" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="U8" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="V8" s="7" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="W8" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="X8" s="7" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="Y8" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="Z8" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AA8" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AB8" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AC8" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AD8" s="7" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="AE8" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="AF8" s="7" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="AG8" s="7" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="AH8" s="7" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="AI8" s="7" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="AJ8" s="7" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="AK8" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="AL8" s="7" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="AM8" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AN8" s="7" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="AO8" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="AP8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="AQ8" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="AR8" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="AS8" s="7" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="AT8" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AU8" s="7" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="AV8" s="7" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="AW8" s="7" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="AX8" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="AY8" s="7" t="s">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="AZ8" s="7" t="s">
         <v>38</v>
@@ -5238,79 +5598,79 @@
         <v>4</v>
       </c>
       <c r="BD8" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="BE8" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BF8" s="7" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="BG8" s="7" t="s">
-        <v>285</v>
+        <v>307</v>
       </c>
       <c r="BH8" s="7" t="s">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="BI8" s="7" t="s">
-        <v>287</v>
+        <v>309</v>
       </c>
       <c r="BJ8" s="7" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="BK8" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="BL8" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="BM8" s="7" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="BN8" s="7" t="s">
-        <v>288</v>
+        <v>310</v>
       </c>
       <c r="BO8" s="7" t="s">
-        <v>258</v>
+        <v>279</v>
       </c>
       <c r="BP8" s="7" t="s">
-        <v>289</v>
+        <v>311</v>
       </c>
       <c r="BQ8" s="7" t="s">
         <v>17</v>
       </c>
       <c r="BR8" s="7" t="s">
-        <v>290</v>
+        <v>312</v>
       </c>
       <c r="BS8" s="7" t="s">
-        <v>291</v>
+        <v>313</v>
       </c>
       <c r="BT8" s="7" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="BU8" s="7" t="s">
-        <v>292</v>
+        <v>314</v>
       </c>
       <c r="BV8" s="7" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="BW8" s="7" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="BX8" s="7" t="s">
-        <v>293</v>
+        <v>315</v>
       </c>
       <c r="BY8" s="7" t="s">
-        <v>294</v>
+        <v>316</v>
       </c>
       <c r="BZ8" s="7" t="s">
-        <v>295</v>
+        <v>317</v>
       </c>
       <c r="CA8" s="7" t="s">
-        <v>247</v>
+        <v>267</v>
       </c>
       <c r="CB8" s="7" t="s">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="CC8" s="7" t="s">
         <v>38</v>
@@ -5319,184 +5679,226 @@
         <v>38</v>
       </c>
       <c r="CE8" s="7" t="s">
-        <v>296</v>
+        <v>318</v>
       </c>
       <c r="CF8" s="7" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="CG8" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="CH8" s="7" t="s">
-        <v>297</v>
+        <v>319</v>
       </c>
       <c r="CI8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="CJ8" s="7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="CK8" s="7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="CL8" s="7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="CM8" s="7" t="s">
-        <v>298</v>
+        <v>320</v>
       </c>
       <c r="CN8" s="7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="CO8" s="7" t="s">
-        <v>299</v>
+        <v>321</v>
       </c>
       <c r="CP8" s="7" t="s">
-        <v>300</v>
+        <v>322</v>
       </c>
       <c r="CQ8" s="7" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="CR8" s="7" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="CS8" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CT8" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CU8" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CV8" s="7" t="s">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="CW8" s="7" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="CX8" s="7" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="CY8" s="7" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="CZ8" s="7" t="s">
-        <v>305</v>
+        <v>327</v>
       </c>
       <c r="DA8" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="DB8" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="DC8" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="DD8" s="7" t="s">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="DE8" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="DF8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DG8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DH8" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="DI8" s="7" t="s">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="DJ8" s="7" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="DK8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DL8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DM8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DN8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DO8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DP8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DQ8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DR8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DS8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DT8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DU8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DV8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DW8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DX8" s="7" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="DY8" s="7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="DZ8" s="7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="EA8" s="7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="EB8" s="7" t="s">
-        <v>307</v>
+        <v>329</v>
       </c>
       <c r="EC8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="ED8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="EE8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="EF8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="EG8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="EH8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="EI8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="EJ8" s="7" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="EK8" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="EL8" s="8" t="s">
-        <v>308</v>
+        <v>239</v>
+      </c>
+      <c r="EL8" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="EM8" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="EN8" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="EO8" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="EP8" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="EQ8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="ER8" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="ES8" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="ET8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="EU8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="EV8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="EW8" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="EX8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="EY8" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="EZ8" s="8" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
